--- a/WorkCycle2.xlsx
+++ b/WorkCycle2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6756" tabRatio="679"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6756" tabRatio="679" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="정건제" sheetId="1" r:id="rId4"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="28">
   <x:si>
     <x:t>3소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회차 종료여부</x:t>
   </x:si>
   <x:si>
     <x:t>4소대 2분대</x:t>
@@ -853,8 +850,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:K18"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K18" activeCellId="0" sqref="A18:K18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -865,42 +862,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="2"/>
@@ -914,10 +911,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="2"/>
       <x:c r="D3" s="2"/>
@@ -931,10 +928,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="2"/>
       <x:c r="D4" s="2"/>
@@ -948,10 +945,10 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="2"/>
       <x:c r="D5" s="2"/>
@@ -965,7 +962,7 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="2"/>
       <x:c r="C6" s="2"/>
@@ -980,10 +977,10 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="2"/>
       <x:c r="D7" s="2"/>
@@ -997,10 +994,10 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="2"/>
       <x:c r="D8" s="2"/>
@@ -1014,7 +1011,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B9" s="2"/>
       <x:c r="C9" s="2"/>
@@ -1029,7 +1026,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2"/>
       <x:c r="C10" s="2"/>
@@ -1044,10 +1041,10 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="2"/>
       <x:c r="D11" s="2"/>
@@ -1061,10 +1058,10 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="2"/>
       <x:c r="D12" s="2"/>
@@ -1093,7 +1090,7 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B14" s="2"/>
       <x:c r="C14" s="2"/>
@@ -1108,7 +1105,7 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="2"/>
       <x:c r="C15" s="2"/>
@@ -1123,7 +1120,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B16" s="2"/>
       <x:c r="C16" s="2"/>
@@ -1138,7 +1135,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="2"/>
       <x:c r="C17" s="2"/>
@@ -1151,50 +1148,17 @@
       <x:c r="J17" s="2"/>
       <x:c r="K17" s="2"/>
     </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="A18" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="str">
-        <x:f>IF(COUNTA(B2:B17)=16,"o",""&amp;"")</x:f>
-        <x:v/>
-      </x:c>
-      <x:c r="C18" s="1" t="str">
-        <x:f t="shared" ref="C18:K18" si="0">IF(COUNTA(C2:C17)=16,"o",""&amp;"")</x:f>
-        <x:v/>
-      </x:c>
-      <x:c r="D18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="E18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="F18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="G18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="H18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="I18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="J18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="K18" s="1" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
+    <x:row r="18" spans="2:11">
+      <x:c r="B18" s="1"/>
+      <x:c r="C18" s="1"/>
+      <x:c r="D18" s="1"/>
+      <x:c r="E18" s="1"/>
+      <x:c r="F18" s="1"/>
+      <x:c r="G18" s="1"/>
+      <x:c r="H18" s="1"/>
+      <x:c r="I18" s="1"/>
+      <x:c r="J18" s="1"/>
+      <x:c r="K18" s="1"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -1208,7 +1172,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:K17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1218,89 +1182,89 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
@@ -1310,22 +1274,22 @@
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1337,10 +1301,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:K18"/>
+  <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D14" activeCellId="0" sqref="D14:D14"/>
+      <x:selection activeCell="A18" activeCellId="0" sqref="A18:K18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1350,48 +1314,48 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="2"/>
       <x:c r="F2" s="2"/>
@@ -1403,16 +1367,16 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E3" s="2"/>
       <x:c r="F3" s="2"/>
@@ -1424,16 +1388,16 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="2"/>
       <x:c r="F4" s="2"/>
@@ -1445,13 +1409,13 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="2"/>
       <x:c r="E5" s="2"/>
@@ -1467,10 +1431,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2"/>
       <x:c r="E6" s="2"/>
@@ -1483,13 +1447,13 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="2"/>
       <x:c r="E7" s="2"/>
@@ -1502,13 +1466,13 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="2"/>
       <x:c r="E8" s="2"/>
@@ -1521,16 +1485,16 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="2"/>
       <x:c r="F9" s="2"/>
@@ -1542,13 +1506,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="2"/>
       <x:c r="E10" s="2"/>
@@ -1561,16 +1525,16 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="2"/>
       <x:c r="F11" s="2"/>
@@ -1582,16 +1546,16 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="2"/>
       <x:c r="F12" s="2"/>
@@ -1603,13 +1567,13 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="2"/>
       <x:c r="E13" s="2"/>
@@ -1622,13 +1586,13 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="2"/>
       <x:c r="E14" s="2"/>
@@ -1641,13 +1605,13 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="2"/>
@@ -1660,16 +1624,16 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E16" s="2"/>
       <x:c r="F16" s="2"/>
@@ -1681,16 +1645,16 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E17" s="2"/>
       <x:c r="F17" s="2"/>
@@ -1699,50 +1663,6 @@
       <x:c r="I17" s="2"/>
       <x:c r="J17" s="2"/>
       <x:c r="K17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="A18" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B18" t="str">
-        <x:f>IF(COUNTA(B2:B17)=16,"o",""&amp;"")</x:f>
-        <x:v>o</x:v>
-      </x:c>
-      <x:c r="C18" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D18" t="str">
-        <x:f t="shared" ref="D18:K18" si="0">IF(COUNTA(D2:D17)=16,"o",""&amp;"")</x:f>
-        <x:v/>
-      </x:c>
-      <x:c r="E18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="F18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="G18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="H18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="I18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="J18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="K18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:sortState columnSort="0" caseSensitive="0" ref="A1:A17">
@@ -1759,7 +1679,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K16" activeCellId="0" sqref="K16:K16"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:K17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1769,54 +1689,54 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
@@ -1826,57 +1746,57 @@
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1888,9 +1808,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet13"/>
-  <x:dimension ref="A1:K18"/>
+  <x:dimension ref="A1:K17"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A18" activeCellId="0" sqref="A18:K18"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1901,42 +1821,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="2"/>
@@ -1950,10 +1870,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="2"/>
       <x:c r="D3" s="2"/>
@@ -1967,10 +1887,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="2"/>
       <x:c r="D4" s="2"/>
@@ -1984,7 +1904,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2"/>
@@ -2140,51 +2060,6 @@
       <x:c r="I17" s="2"/>
       <x:c r="J17" s="2"/>
       <x:c r="K17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="A18" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B18" t="str">
-        <x:f>IF(COUNTA(B2:B17)=16,"o",""&amp;"")</x:f>
-        <x:v/>
-      </x:c>
-      <x:c r="C18" t="str">
-        <x:f t="shared" ref="C18:K18" si="0">IF(COUNTA(C2:C17)=16,"o",""&amp;"")</x:f>
-        <x:v/>
-      </x:c>
-      <x:c r="D18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="E18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="F18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="G18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="H18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="I18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="J18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
-      <x:c r="K18" t="str">
-        <x:f t="shared" si="0"/>
-        <x:v/>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -2198,7 +2073,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
+      <x:selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -2208,34 +2083,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">

--- a/WorkCycle2.xlsx
+++ b/WorkCycle2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6756" tabRatio="679" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8652" tabRatio="679" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="정건제" sheetId="1" r:id="rId4"/>
@@ -24,97 +24,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>5회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
   <x:si>
     <x:t>회차 종료여부</x:t>
   </x:si>
   <x:si>
-    <x:t>9회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>2회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
+    <x:t>4소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 4분대</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">회차 종료여부
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 4분대</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -875,42 +875,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="3"/>
       <x:c r="D2" s="3"/>
@@ -924,10 +924,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="3"/>
       <x:c r="D3" s="3"/>
@@ -941,10 +941,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="3"/>
       <x:c r="D4" s="3"/>
@@ -958,10 +958,10 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="3"/>
       <x:c r="D5" s="3"/>
@@ -975,7 +975,7 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="3"/>
       <x:c r="C6" s="3"/>
@@ -990,10 +990,10 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="3"/>
       <x:c r="D7" s="3"/>
@@ -1007,10 +1007,10 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="3"/>
       <x:c r="D8" s="3"/>
@@ -1024,7 +1024,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B9" s="3"/>
       <x:c r="C9" s="3"/>
@@ -1039,7 +1039,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B10" s="3"/>
       <x:c r="C10" s="3"/>
@@ -1054,10 +1054,10 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="3"/>
       <x:c r="D11" s="3"/>
@@ -1071,10 +1071,10 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="3"/>
       <x:c r="D12" s="3"/>
@@ -1088,7 +1088,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B13" s="3"/>
       <x:c r="C13" s="3"/>
@@ -1118,7 +1118,7 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B15" s="3"/>
       <x:c r="C15" s="3"/>
@@ -1133,7 +1133,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B16" s="3"/>
       <x:c r="C16" s="3"/>
@@ -1148,7 +1148,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B17" s="3"/>
       <x:c r="C17" s="3"/>
@@ -1163,7 +1163,7 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="2"/>
       <x:c r="C18" s="2"/>
@@ -1198,94 +1198,94 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
@@ -1295,17 +1295,17 @@
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1319,8 +1319,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A18" activeCellId="0" sqref="A18:A18"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B22" activeCellId="0" sqref="B22:B22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1330,48 +1330,48 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2" s="3"/>
       <x:c r="F2" s="3"/>
@@ -1383,16 +1383,16 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="3"/>
       <x:c r="F3" s="3"/>
@@ -1404,16 +1404,16 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="3"/>
       <x:c r="F4" s="3"/>
@@ -1428,10 +1428,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D5" s="3"/>
       <x:c r="E5" s="3"/>
@@ -1444,13 +1444,13 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" s="3"/>
       <x:c r="E6" s="3"/>
@@ -1463,13 +1463,13 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D7" s="3"/>
       <x:c r="E7" s="3"/>
@@ -1482,13 +1482,13 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="3"/>
       <x:c r="E8" s="3"/>
@@ -1501,16 +1501,16 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E9" s="3"/>
       <x:c r="F9" s="3"/>
@@ -1522,13 +1522,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="3"/>
       <x:c r="E10" s="3"/>
@@ -1541,16 +1541,16 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E11" s="3"/>
       <x:c r="F11" s="3"/>
@@ -1562,16 +1562,16 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E12" s="3"/>
       <x:c r="F12" s="3"/>
@@ -1583,13 +1583,13 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D13" s="3"/>
       <x:c r="E13" s="3"/>
@@ -1602,13 +1602,13 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="3"/>
       <x:c r="E14" s="3"/>
@@ -1621,13 +1621,13 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="3"/>
       <x:c r="E15" s="3"/>
@@ -1640,16 +1640,16 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E16" s="3"/>
       <x:c r="F16" s="3"/>
@@ -1659,18 +1659,18 @@
       <x:c r="J16" s="3"/>
       <x:c r="K16" s="3"/>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:11" ht="15.6" customHeight="1">
       <x:c r="A17" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="3"/>
@@ -1680,9 +1680,15 @@
       <x:c r="J17" s="3"/>
       <x:c r="K17" s="3"/>
     </x:row>
-    <x:row r="18" spans="1:1" ht="27.100000000000001">
+    <x:row r="18" spans="1:3" ht="15" customHeight="1">
       <x:c r="A18" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1710,49 +1716,49 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
@@ -1762,62 +1768,62 @@
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1831,7 +1837,7 @@
   <x:sheetPr codeName="Sheet13"/>
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A18" activeCellId="0" sqref="A18:A18"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1842,42 +1848,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="3"/>
       <x:c r="D2" s="3"/>
@@ -1891,10 +1897,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="3"/>
       <x:c r="D3" s="3"/>
@@ -1908,10 +1914,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="3"/>
       <x:c r="D4" s="3"/>
@@ -1925,7 +1931,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="3"/>
       <x:c r="C5" s="3"/>
@@ -2084,7 +2090,7 @@
     </x:row>
     <x:row r="18" spans="1:1" ht="27.100000000000001">
       <x:c r="A18" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2109,34 +2115,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">

--- a/WorkCycle2.xlsx
+++ b/WorkCycle2.xlsx
@@ -24,97 +24,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>1회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3회차</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="30">
+  <x:si>
+    <x:t>1소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 1분대</x:t>
   </x:si>
   <x:si>
     <x:t>1소대 3분대</x:t>
   </x:si>
   <x:si>
-    <x:t>1소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 1분대</x:t>
-  </x:si>
-  <x:si>
     <x:t>3소대 4분대</x:t>
   </x:si>
   <x:si>
+    <x:t>1소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회차 종료여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 3분대</x:t>
+  </x:si>
+  <x:si>
     <x:t>4소대 3분대</x:t>
   </x:si>
   <x:si>
-    <x:t>회차 종료여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 4분대</x:t>
-  </x:si>
-  <x:si>
     <x:t>2소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 4분대</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">회차 종료여부
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>9회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>5회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6회차</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -867,7 +867,7 @@
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C11" activeCellId="0" sqref="C11:C11"/>
+      <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -878,42 +878,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="4"/>
       <x:c r="D2" s="4"/>
@@ -927,13 +927,13 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="4"/>
@@ -946,13 +946,13 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D4" s="4"/>
       <x:c r="E4" s="4"/>
@@ -965,13 +965,13 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="4"/>
       <x:c r="E5" s="4"/>
@@ -984,13 +984,13 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="4"/>
       <x:c r="E6" s="4"/>
@@ -1003,13 +1003,13 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="4"/>
       <x:c r="E7" s="4"/>
@@ -1022,10 +1022,10 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="4"/>
       <x:c r="D8" s="4"/>
@@ -1039,10 +1039,10 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="4"/>
       <x:c r="D9" s="4"/>
@@ -1056,10 +1056,10 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="4"/>
       <x:c r="D10" s="4"/>
@@ -1073,10 +1073,10 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="4"/>
       <x:c r="D11" s="4"/>
@@ -1090,13 +1090,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D12" s="4"/>
       <x:c r="E12" s="4"/>
@@ -1109,13 +1109,11 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B13" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B13" s="4"/>
       <x:c r="C13" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="4"/>
       <x:c r="E13" s="4"/>
@@ -1128,11 +1126,9 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B14" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B14" s="4"/>
       <x:c r="C14" s="4"/>
       <x:c r="D14" s="4"/>
       <x:c r="E14" s="4"/>
@@ -1145,11 +1141,9 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B15" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B15" s="4"/>
       <x:c r="C15" s="4"/>
       <x:c r="D15" s="4"/>
       <x:c r="E15" s="4"/>
@@ -1162,13 +1156,11 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B16" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B16" s="4"/>
       <x:c r="C16" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D16" s="4"/>
       <x:c r="E16" s="4"/>
@@ -1181,7 +1173,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B17" s="4"/>
       <x:c r="C17" s="4"/>
@@ -1196,7 +1188,7 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="3"/>
       <x:c r="C18" s="3"/>
@@ -1231,114 +1223,114 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1353,7 +1345,7 @@
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
+      <x:selection activeCell="D18" activeCellId="0" sqref="D18:D18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1363,48 +1355,48 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E2" s="4"/>
       <x:c r="F2" s="4"/>
@@ -1416,19 +1408,19 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F3" s="4"/>
       <x:c r="G3" s="4"/>
@@ -1439,16 +1431,16 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E4" s="4"/>
       <x:c r="F4" s="4"/>
@@ -1460,19 +1452,19 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="4"/>
       <x:c r="G5" s="4"/>
@@ -1483,16 +1475,16 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E6" s="4"/>
       <x:c r="F6" s="4"/>
@@ -1504,19 +1496,19 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F7" s="4"/>
       <x:c r="G7" s="4"/>
@@ -1527,13 +1519,13 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="4"/>
       <x:c r="E8" s="4"/>
@@ -1546,19 +1538,19 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
@@ -1569,17 +1561,17 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D10" s="4"/>
       <x:c r="E10" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
@@ -1590,16 +1582,16 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
@@ -1611,19 +1603,19 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
@@ -1634,19 +1626,19 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
@@ -1657,19 +1649,19 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
@@ -1680,17 +1672,17 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D15" s="4"/>
       <x:c r="E15" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="4"/>
       <x:c r="G15" s="4"/>
@@ -1701,19 +1693,19 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E16" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F16" s="4"/>
       <x:c r="G16" s="4"/>
@@ -1724,16 +1716,16 @@
     </x:row>
     <x:row r="17" spans="1:11" ht="15.6" customHeight="1">
       <x:c r="A17" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="4"/>
       <x:c r="F17" s="4"/>
@@ -1745,13 +1737,13 @@
     </x:row>
     <x:row r="18" spans="1:3" ht="15" customHeight="1">
       <x:c r="A18" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1779,114 +1771,114 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1911,42 +1903,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="4"/>
       <x:c r="D2" s="4"/>
@@ -1960,10 +1952,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1977,10 +1969,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="4"/>
       <x:c r="D4" s="4"/>
@@ -1994,7 +1986,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="4"/>
       <x:c r="C5" s="4"/>
@@ -2153,7 +2145,7 @@
     </x:row>
     <x:row r="18" spans="1:1" ht="27.100000000000001">
       <x:c r="A18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2178,34 +2170,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
